--- a/7-Gerenciamento_de_Projeto/7.1-Planejamento/cronograma+graficodegantt.xlsx
+++ b/7-Gerenciamento_de_Projeto/7.1-Planejamento/cronograma+graficodegantt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
   <si>
     <t>CRONOGRAMA - SISTEMA MÓVEIS TRÊS LAGOAS</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t xml:space="preserve">                  ATA de reunião de apresentação da fase 4 ao cliente</t>
+  </si>
+  <si>
+    <t>21 dias</t>
+  </si>
+  <si>
+    <t>Indefinido</t>
+  </si>
+  <si>
+    <t>16 dias</t>
+  </si>
+  <si>
+    <t>1 dias</t>
   </si>
 </sst>
 </file>
@@ -445,24 +457,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,6 +471,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,7 +773,7 @@
   <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,15 +1284,14 @@
         <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>42683</v>
       </c>
       <c r="E24" s="6">
-        <f>D24+14</f>
-        <v>42697</v>
+        <v>42704</v>
       </c>
       <c r="F24" s="3">
         <v>15</v>
@@ -1294,15 +1305,15 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D25" s="4">
         <f>D24</f>
         <v>42683</v>
       </c>
       <c r="E25" s="4">
-        <f>D25+4</f>
-        <v>42687</v>
+        <f>D25+16</f>
+        <v>42699</v>
       </c>
       <c r="F25" s="3">
         <v>20</v>
@@ -1316,15 +1327,15 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D26" s="4">
         <f>E25</f>
-        <v>42687</v>
+        <v>42699</v>
       </c>
       <c r="E26" s="4">
-        <f>D26+3</f>
-        <v>42690</v>
+        <f>D26+1</f>
+        <v>42700</v>
       </c>
       <c r="F26" s="3">
         <v>23</v>
@@ -1338,15 +1349,15 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="4">
         <f>E26</f>
-        <v>42690</v>
+        <v>42700</v>
       </c>
       <c r="E27" s="4">
-        <f>D27+4</f>
-        <v>42694</v>
+        <f>D27+1</f>
+        <v>42701</v>
       </c>
       <c r="F27" s="3">
         <v>24</v>
@@ -1364,11 +1375,11 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D30" si="1">E27</f>
-        <v>42694</v>
+        <v>42701</v>
       </c>
       <c r="E28" s="4">
         <f>D28+1</f>
-        <v>42695</v>
+        <v>42702</v>
       </c>
       <c r="F28" s="3">
         <v>25</v>
@@ -1386,11 +1397,11 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>42695</v>
+        <v>42702</v>
       </c>
       <c r="E29" s="4">
         <f>D29+1</f>
-        <v>42696</v>
+        <v>42703</v>
       </c>
       <c r="F29" s="3">
         <v>26</v>
@@ -1404,14 +1415,15 @@
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="1"/>
-        <v>42696</v>
+        <v>42703</v>
       </c>
       <c r="E30" s="4">
-        <v>42697</v>
+        <f>D30+1</f>
+        <v>42704</v>
       </c>
       <c r="F30" s="3">
         <v>27</v>
@@ -1425,15 +1437,15 @@
         <v>41</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D31" s="6">
         <f>E30</f>
-        <v>42697</v>
+        <v>42704</v>
       </c>
       <c r="E31" s="6">
         <f>D31+7</f>
-        <v>42704</v>
+        <v>42711</v>
       </c>
       <c r="F31" s="3">
         <v>26</v>
@@ -1447,15 +1459,15 @@
         <v>30</v>
       </c>
       <c r="C32" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="4">
         <f>D31</f>
-        <v>42697</v>
+        <v>42704</v>
       </c>
       <c r="E32" s="4">
-        <f>D32+4</f>
-        <v>42701</v>
+        <f>D32+1</f>
+        <v>42705</v>
       </c>
       <c r="F32" s="3">
         <v>26</v>
@@ -1473,11 +1485,11 @@
       </c>
       <c r="D33" s="4">
         <f>E32</f>
-        <v>42701</v>
+        <v>42705</v>
       </c>
       <c r="E33" s="4">
         <f>D33+1</f>
-        <v>42702</v>
+        <v>42706</v>
       </c>
       <c r="F33" s="3">
         <v>30</v>
@@ -1495,11 +1507,11 @@
       </c>
       <c r="D34" s="4">
         <f>E33</f>
-        <v>42702</v>
+        <v>42706</v>
       </c>
       <c r="E34" s="4">
         <f>D34+1</f>
-        <v>42703</v>
+        <v>42707</v>
       </c>
       <c r="F34" s="3">
         <v>31</v>
@@ -1517,11 +1529,10 @@
       </c>
       <c r="D35" s="4">
         <f>E34</f>
-        <v>42703</v>
+        <v>42707</v>
       </c>
       <c r="E35" s="4">
-        <f>D35+1</f>
-        <v>42704</v>
+        <v>42707</v>
       </c>
       <c r="F35" s="3">
         <v>32</v>
@@ -1954,165 +1965,165 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B1" s="31"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="41"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="41"/>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="41"/>
-      <c r="BL1" s="41"/>
-      <c r="BM1" s="41"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="46">
         <v>42648</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="44">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="46">
         <v>42655</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="44">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="46">
         <v>42601</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="44">
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="46">
         <v>42669</v>
       </c>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="44">
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="46">
         <f>X2+7</f>
         <v>42676</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="49">
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="43">
         <f>AE2+7</f>
         <v>42683</v>
       </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="44">
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="46">
         <f t="shared" ref="AS2" si="0">AL2+7</f>
         <v>42690</v>
       </c>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="49">
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="43">
         <f t="shared" ref="AZ2" si="1">AS2+7</f>
         <v>42697</v>
       </c>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="44">
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="46">
         <f t="shared" ref="BG2" si="2">AZ2+7</f>
         <v>42704</v>
       </c>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="46"/>
+      <c r="BH2" s="47"/>
+      <c r="BI2" s="47"/>
+      <c r="BJ2" s="47"/>
+      <c r="BK2" s="47"/>
+      <c r="BL2" s="47"/>
+      <c r="BM2" s="48"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
@@ -5062,11 +5073,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
-    <mergeCell ref="BG2:BM2"/>
     <mergeCell ref="C1:BM1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:I2"/>
@@ -5074,6 +5080,11 @@
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="X2:AD2"/>
     <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/7-Gerenciamento_de_Projeto/7.1-Planejamento/cronograma+graficodegantt.xlsx
+++ b/7-Gerenciamento_de_Projeto/7.1-Planejamento/cronograma+graficodegantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
@@ -457,6 +457,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,24 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1917,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="BN38" sqref="BN38"/>
     </sheetView>
   </sheetViews>
@@ -1965,165 +1965,165 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B1" s="31"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="44">
         <v>42648</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="46">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="44">
         <v>42655</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="46">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="44">
         <v>42601</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="46">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="44">
         <v>42669</v>
       </c>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="46">
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="44">
         <f>X2+7</f>
         <v>42676</v>
       </c>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="43">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="49">
         <f>AE2+7</f>
         <v>42683</v>
       </c>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="46">
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="44">
         <f t="shared" ref="AS2" si="0">AL2+7</f>
         <v>42690</v>
       </c>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="43">
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="49">
         <f t="shared" ref="AZ2" si="1">AS2+7</f>
         <v>42697</v>
       </c>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="46">
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="44">
         <f t="shared" ref="BG2" si="2">AZ2+7</f>
         <v>42704</v>
       </c>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="48"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="46"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
@@ -5073,6 +5073,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
     <mergeCell ref="C1:BM1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:I2"/>
@@ -5080,11 +5085,6 @@
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="X2:AD2"/>
     <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
-    <mergeCell ref="BG2:BM2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
